--- a/src/prob-1/part-1.xlsx
+++ b/src/prob-1/part-1.xlsx
@@ -3573,34 +3573,34 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>18</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
@@ -11009,16 +11009,16 @@
         <v>0</v>
       </c>
       <c r="AE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH82" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0</v>
       </c>
       <c r="AI82" t="n">
         <v>0</v>
@@ -14313,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -17841,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -17877,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
@@ -17970,43 +17970,43 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
         <v>0.6</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
       </c>
       <c r="AF53" t="n">
         <v>0</v>
@@ -18264,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF55" t="n">
         <v>0</v>
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
         <v>0</v>
@@ -21455,43 +21455,43 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="n">
         <v>0.6</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>0</v>
       </c>
       <c r="AF80" t="n">
         <v>0</v>
@@ -21584,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -21620,7 +21620,7 @@
         <v>0</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF81" t="n">
         <v>0</v>
@@ -21878,16 +21878,16 @@
         <v>0</v>
       </c>
       <c r="AE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>0</v>
       </c>
       <c r="AI83" t="n">
         <v>0</v>
@@ -25053,40 +25053,40 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>18</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -28617,16 +28617,16 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
       </c>
       <c r="AI52" t="n">
         <v>0</v>
@@ -32231,7 +32231,7 @@
         <v>0</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF80" t="n">
         <v>0</v>
@@ -32240,7 +32240,7 @@
         <v>0</v>
       </c>
       <c r="AH80" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI80" t="n">
         <v>0</v>
@@ -35793,7 +35793,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -39744,16 +39744,16 @@
         <v>0</v>
       </c>
       <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
       </c>
       <c r="AI55" t="n">
         <v>0</v>
@@ -43358,7 +43358,7 @@
         <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF83" t="n">
         <v>0</v>
@@ -43367,7 +43367,7 @@
         <v>0</v>
       </c>
       <c r="AH83" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI83" t="n">
         <v>0</v>
@@ -58737,7 +58737,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -58866,7 +58866,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -58995,7 +58995,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -59124,7 +59124,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -59253,7 +59253,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -59382,7 +59382,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -59511,7 +59511,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -59640,7 +59640,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -59769,7 +59769,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -59898,7 +59898,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -60027,7 +60027,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -60156,7 +60156,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -60285,7 +60285,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -60414,7 +60414,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -60543,7 +60543,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -60672,7 +60672,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -60966,16 +60966,16 @@
         <v>0</v>
       </c>
       <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
       </c>
       <c r="AI53" t="n">
         <v>0</v>
@@ -64580,7 +64580,7 @@
         <v>0</v>
       </c>
       <c r="AE81" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF81" t="n">
         <v>0</v>
@@ -64589,7 +64589,7 @@
         <v>0</v>
       </c>
       <c r="AH81" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI81" t="n">
         <v>0</v>
@@ -64673,7 +64673,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T82" t="n">
         <v>0</v>
@@ -64802,7 +64802,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T83" t="n">
         <v>0</v>
